--- a/DemoAuto/data/SearchingData.xlsx
+++ b/DemoAuto/data/SearchingData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonbn2\Desktop\Automation\Workspace\DemoAuto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Workspace\DemoAuto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8104F7-844B-42F1-90E2-4BC25451787B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8115"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchingKeyword" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Role</t>
   </si>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +479,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
@@ -500,18 +503,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,18 +735,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B86835-F02E-4C81-A578-E8E0DA095056}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C01CFA-657B-4539-83DD-3CCFCB49410E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B86835-F02E-4C81-A578-E8E0DA095056}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
